--- a/reports/Kho.xlsx
+++ b/reports/Kho.xlsx
@@ -336,7 +336,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>838950.0</v>
+        <v>759050.0</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -359,7 +359,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>838950.0</v>
+        <v>759050.0</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -382,7 +382,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>492450.0</v>
+        <v>445550.0</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -405,7 +405,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>454650.0</v>
+        <v>411350.0</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>649950.0</v>
+        <v>588050.0</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -451,7 +451,7 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>324450.0</v>
+        <v>293550.0</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>502950.0</v>
+        <v>455050.0</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -497,7 +497,7 @@
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>586950.0</v>
+        <v>531050.0</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -520,7 +520,7 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>418950.0</v>
+        <v>379050.0</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -543,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>329700.0</v>
+        <v>298300.0</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -566,7 +566,7 @@
         <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2100000.0</v>
+        <v>1900000.0</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -589,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2310000.0</v>
+        <v>2090000.0</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -612,7 +612,7 @@
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1890000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -635,7 +635,7 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>270900.0</v>
+        <v>245100.0</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -658,7 +658,7 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>270900.0</v>
+        <v>245100.0</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>735000.0</v>
+        <v>665000.0</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -704,7 +704,7 @@
         <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>387450.0</v>
+        <v>350550.0</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>595350.0</v>
+        <v>538650.0</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -750,7 +750,7 @@
         <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>519750.0</v>
+        <v>470250.0</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -773,7 +773,7 @@
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>519750.0</v>
+        <v>470250.0</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>

--- a/reports/Kho.xlsx
+++ b/reports/Kho.xlsx
@@ -336,7 +336,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>759050.0</v>
+        <v>838950.0</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -356,10 +356,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="D3" t="n">
-        <v>759050.0</v>
+        <v>838950.0</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -379,10 +379,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="D4" t="n">
-        <v>445550.0</v>
+        <v>492450.0</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -402,10 +402,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>411350.0</v>
+        <v>454650.0</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -425,10 +425,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="D6" t="n">
-        <v>588050.0</v>
+        <v>649950.0</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -448,10 +448,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="D7" t="n">
-        <v>293550.0</v>
+        <v>324450.0</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -471,10 +471,10 @@
         <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
-        <v>455050.0</v>
+        <v>502950.0</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -494,10 +494,10 @@
         <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D9" t="n">
-        <v>531050.0</v>
+        <v>586950.0</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -517,10 +517,10 @@
         <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="D10" t="n">
-        <v>379050.0</v>
+        <v>418950.0</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -540,10 +540,10 @@
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D11" t="n">
-        <v>298300.0</v>
+        <v>329700.0</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -563,10 +563,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1900000.0</v>
+        <v>2100000.0</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -586,10 +586,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2090000.0</v>
+        <v>2310000.0</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -609,10 +609,10 @@
         <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1710000.0</v>
+        <v>1890000.0</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -632,10 +632,10 @@
         <v>52</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>245100.0</v>
+        <v>270900.0</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -655,10 +655,10 @@
         <v>56</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="D16" t="n">
-        <v>245100.0</v>
+        <v>270900.0</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -678,10 +678,10 @@
         <v>59</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="D17" t="n">
-        <v>665000.0</v>
+        <v>735000.0</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -701,10 +701,10 @@
         <v>62</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="D18" t="n">
-        <v>350550.0</v>
+        <v>387450.0</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -724,10 +724,10 @@
         <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="D19" t="n">
-        <v>538650.0</v>
+        <v>595350.0</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -747,10 +747,10 @@
         <v>69</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="D20" t="n">
-        <v>470250.0</v>
+        <v>519750.0</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -773,7 +773,7 @@
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>470250.0</v>
+        <v>519750.0</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
